--- a/NFL 2018.xlsx
+++ b/NFL 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark D\Dropbox\SPORTS\NFL-Winner-Predection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99189B-94CA-4326-8ADD-B15A4CA8552C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253688C2-52D2-423F-8692-5D3E41742918}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="11985" xr2:uid="{0C7E2343-60AE-4D01-A213-196DAD732CA8}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>Team 1</t>
   </si>
@@ -172,6 +173,21 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Mark Prediction</t>
+  </si>
+  <si>
+    <t>Computer Prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Accuracy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Prediction </t>
   </si>
 </sst>
 </file>
@@ -295,7 +311,99 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -605,22 +713,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C4C208-8071-49E6-ADE7-254BC184941A}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="11.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.73046875" customWidth="1"/>
     <col min="9" max="11" width="14.1328125" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.796875" customWidth="1"/>
+    <col min="20" max="20" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -655,13 +767,22 @@
         <v>45</v>
       </c>
       <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43349</v>
       </c>
@@ -696,14 +817,19 @@
       <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5"/>
+      <c r="M2">
         <v>12</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <f>IF(OR(AND(M2&gt;N2,B2=K2),AND(M2&lt;N2,C2=K2)),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43352</v>
       </c>
@@ -738,14 +864,26 @@
       <c r="K3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L3">
-        <v>21</v>
-      </c>
+      <c r="L3" s="5"/>
       <c r="M3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N3">
+        <v>21</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O17" si="1">IF(OR(AND(M3&gt;N3,B3=K3),AND(M3&lt;N3,C3=K3)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3">
+        <f>SUM(O:O)/COUNT(O:O)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>43352</v>
       </c>
@@ -780,14 +918,22 @@
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5"/>
+      <c r="M4">
         <v>16</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>43352</v>
       </c>
@@ -822,14 +968,19 @@
       <c r="K5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7"/>
+      <c r="M5">
         <v>34</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43352</v>
       </c>
@@ -850,7 +1001,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ref="G6:G16" si="1">100-F6</f>
+        <f t="shared" ref="G6:G16" si="2">100-F6</f>
         <v>70</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -865,14 +1016,19 @@
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3"/>
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43352</v>
       </c>
@@ -907,14 +1063,19 @@
       <c r="K7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5"/>
+      <c r="M7">
         <v>20</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43352</v>
       </c>
@@ -949,14 +1110,19 @@
       <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5"/>
+      <c r="M8">
         <v>48</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43352</v>
       </c>
@@ -977,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -992,14 +1158,19 @@
       <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3"/>
+      <c r="M9">
         <v>20</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43352</v>
       </c>
@@ -1032,14 +1203,15 @@
         <v>20</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10">
+      <c r="L10" s="2"/>
+      <c r="M10">
         <v>20</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43352</v>
       </c>
@@ -1074,14 +1246,19 @@
       <c r="K11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5"/>
+      <c r="M11">
         <v>38</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43352</v>
       </c>
@@ -1114,14 +1291,15 @@
         <v>25</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12">
+      <c r="L12" s="2"/>
+      <c r="M12">
         <v>24</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43352</v>
       </c>
@@ -1142,7 +1320,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1157,14 +1335,19 @@
       <c r="K13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5"/>
+      <c r="M13">
         <v>8</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43352</v>
       </c>
@@ -1199,14 +1382,19 @@
       <c r="K14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3"/>
+      <c r="M14">
         <v>24</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43352</v>
       </c>
@@ -1227,7 +1415,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -1242,14 +1430,19 @@
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5"/>
+      <c r="M15">
         <v>23</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43353</v>
       </c>
@@ -1270,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1285,8 +1478,13 @@
       <c r="K16" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L16" s="3"/>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43353</v>
       </c>
@@ -1321,13 +1519,417 @@
       <c r="K17" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="L17" s="3"/>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>43356</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <f>100-D19</f>
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>58</v>
+      </c>
+      <c r="G19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E34" si="3">100-D20</f>
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="F23">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F24">
+        <v>27</v>
+      </c>
+      <c r="G24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F25">
+        <v>38</v>
+      </c>
+      <c r="G25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>38</v>
+      </c>
+      <c r="G26">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>63</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <v>62</v>
+      </c>
+      <c r="G27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>52</v>
+      </c>
+      <c r="G30">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="F31">
+        <v>54</v>
+      </c>
+      <c r="G31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="F32">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>43359</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>56</v>
+      </c>
+      <c r="G34">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:C38" xr:uid="{A3325F51-5C6B-45E3-9621-B15AA83C124A}">
-      <formula1>$O$33:$O$33</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$M$2&gt;$N$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M15">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$M$2&gt;$N$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$N2&gt;$M2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$M1&gt;$N1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -1337,7 +1939,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$32</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B25 B2:C6 C8:C35 H2:H7 I2:I6 H17:K17 H8:I16 J11:K11 J16:K16 J2:K9</xm:sqref>
+          <xm:sqref>B8:B52 B2:C6 J2:L9 H2:H7 I2:I6 H17:L17 H8:I16 J11:L11 J16:L16 C8:C49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1350,7 +1952,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A1:A33"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1392,7 +1994,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
